--- a/CURRENT WORK/CRITICAL POINTS/Excel.xlsx
+++ b/CURRENT WORK/CRITICAL POINTS/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\CRITICAL POINTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/CRITICAL POINTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A046C5-71F8-4645-8BEA-770A99D02529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{B8A046C5-71F8-4645-8BEA-770A99D02529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE3F027B-41E0-4312-BDBE-030634B128C1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56FB4B74-5F51-4F48-B8C4-470E0A5A16D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{56FB4B74-5F51-4F48-B8C4-470E0A5A16D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Volume Fraction</t>
   </si>
@@ -75,13 +75,81 @@
   </si>
   <si>
     <t>Our Work Data</t>
+  </si>
+  <si>
+    <t>Molality Deviation</t>
+  </si>
+  <si>
+    <t>Reference Papers</t>
+  </si>
+  <si>
+    <t>[4-8]</t>
+  </si>
+  <si>
+    <t>[1-3]</t>
+  </si>
+  <si>
+    <t>[1-2]</t>
+  </si>
+  <si>
+    <t>[9, 14-16]</t>
+  </si>
+  <si>
+    <r>
+      <t>CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +160,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -198,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,10 +303,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,26 +645,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C6E07D-3AB0-4C80-8E81-6292E686A2B0}">
-  <dimension ref="C3:M18"/>
+  <dimension ref="C3:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:M18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="8.90625" style="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="4.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="1"/>
+    <col min="8" max="8" width="12.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" customWidth="1"/>
+    <col min="12" max="12" width="19.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -600,7 +679,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
         <v>8</v>
@@ -624,8 +703,11 @@
       <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
@@ -633,11 +715,11 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.175289</v>
+        <v>0.18928900000000001</v>
       </c>
       <c r="G6" s="1">
         <f>(55.56*E6)/(D6*(1-E6))</f>
-        <v>3.9363513764215585</v>
+        <v>4.324145447637938</v>
       </c>
       <c r="H6" s="1">
         <v>229.065</v>
@@ -652,8 +734,12 @@
         <f>((H6-J6)/J6)*100</f>
         <v>2.7298657266636122</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <f>ABS(((G6-I6)/I6)*100)</f>
+        <v>2.1575868845358581</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
@@ -680,8 +766,12 @@
         <f t="shared" ref="L7:L10" si="0">((H7-J7)/J7)*100</f>
         <v>2.6783929642217579E-2</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <f t="shared" ref="M7:M10" si="1">ABS(((G7-I7)/I7)*100)</f>
+        <v>1.9499093385796431</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
@@ -692,7 +782,7 @@
         <v>0.238121</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G10" si="1">(55.56*E8)/(D8*(1-E8))</f>
+        <f t="shared" ref="G8:G10" si="2">(55.56*E8)/(D8*(1-E8))</f>
         <v>8.6824828877026405</v>
       </c>
       <c r="H8" s="1">
@@ -708,8 +798,12 @@
         <f t="shared" si="0"/>
         <v>-2.9812541967274364</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>5.6648763259418278</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
@@ -720,7 +814,7 @@
         <v>6.2170999999999997E-2</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8416047914918392</v>
       </c>
       <c r="H9" s="1">
@@ -736,8 +830,12 @@
         <f t="shared" si="0"/>
         <v>0.35479680831323707</v>
       </c>
-    </row>
-    <row r="10" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>5.2345595138193826</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
@@ -749,7 +847,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9583933674702001</v>
       </c>
       <c r="H10" s="12">
@@ -765,13 +863,17 @@
         <f t="shared" si="0"/>
         <v>2.9376736800311175E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>4.4625555400732226</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="I12" s="15" t="s">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="I12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="1"/>
@@ -779,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I13" s="1" t="s">
         <v>1</v>
       </c>
@@ -792,13 +894,23 @@
       <c r="L13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="E14" s="1">
+        <f>((I14-K14)/K14)*100</f>
+        <v>-10.932201008676131</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I14" s="1">
         <v>3.9363513764215585</v>
@@ -815,10 +927,16 @@
       <c r="M14">
         <v>2.7298657266636122</v>
       </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>2.1575868845358581</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H15" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1">
         <v>3.4503826903753825</v>
@@ -835,8 +953,14 @@
       <c r="M15">
         <v>2.6783929642217579E-2</v>
       </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>1.9499093385796431</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H16" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +979,14 @@
       <c r="M16">
         <v>2.98125419672744</v>
       </c>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>5.6648763259418278</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H17" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +1005,14 @@
       <c r="M17">
         <v>0.35479680831323707</v>
       </c>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>5.2345595138193826</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15" x14ac:dyDescent="0.35">
       <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,6 +1030,12 @@
       </c>
       <c r="M18">
         <v>2.9376736800311175E-2</v>
+      </c>
+      <c r="N18">
+        <v>4.4625555400732226</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/CURRENT WORK/CRITICAL POINTS/Excel.xlsx
+++ b/CURRENT WORK/CRITICAL POINTS/Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/CRITICAL POINTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{B8A046C5-71F8-4645-8BEA-770A99D02529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE3F027B-41E0-4312-BDBE-030634B128C1}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{B8A046C5-71F8-4645-8BEA-770A99D02529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE522477-A79E-4A17-A022-3D48F34A7E18}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{56FB4B74-5F51-4F48-B8C4-470E0A5A16D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Volume Fraction</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Temperature Deviation</t>
-  </si>
-  <si>
-    <t>Our Work Data</t>
   </si>
   <si>
     <t>Molality Deviation</t>
@@ -143,6 +140,18 @@
       </rPr>
       <t>4</t>
     </r>
+  </si>
+  <si>
+    <t>Our Model eq 16 &amp; 17</t>
+  </si>
+  <si>
+    <t>Critical Temperature</t>
+  </si>
+  <si>
+    <t>Critical Molality</t>
+  </si>
+  <si>
+    <t>Salts</t>
   </si>
 </sst>
 </file>
@@ -273,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,9 +314,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -326,6 +332,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,7 +658,7 @@
   <dimension ref="C3:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H12" sqref="H12:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,8 +713,8 @@
       <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>13</v>
+      <c r="M5" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
@@ -874,7 +884,7 @@
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.35">
       <c r="I12" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" t="s">
@@ -882,26 +892,29 @@
       </c>
     </row>
     <row r="13" spans="3:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.35">
@@ -910,7 +923,7 @@
         <v>-10.932201008676131</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1">
         <v>3.9363513764215585</v>
@@ -928,15 +941,15 @@
         <v>2.7298657266636122</v>
       </c>
       <c r="N14">
-        <v>2.1575868845358581</v>
+        <v>-10.932201008676131</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.35">
       <c r="H15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="1">
         <v>3.4503826903753825</v>
@@ -957,7 +970,7 @@
         <v>1.9499093385796431</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.35">
@@ -983,7 +996,7 @@
         <v>5.6648763259418278</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.35">
@@ -1009,7 +1022,7 @@
         <v>5.2345595138193826</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.35">
@@ -1035,7 +1048,7 @@
         <v>4.4625555400732226</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
